--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetLoginID.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetLoginID.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-42920\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,10 +62,10 @@
     <t>When I am verifying Forget Login ID scenario</t>
   </si>
   <si>
-    <t>1350314051455</t>
-  </si>
-  <si>
-    <t>03110204994</t>
+    <t>3640211897773</t>
+  </si>
+  <si>
+    <t>03006943677</t>
   </si>
 </sst>
 </file>
@@ -387,14 +387,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="121" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="118" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="185.85546875" style="1" bestFit="1" customWidth="1"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetLoginID.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetLoginID.xlsx
@@ -24,48 +24,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>cnic</t>
-  </si>
-  <si>
-    <t>tran_message_qeury</t>
-  </si>
-  <si>
-    <t>tran_id_query</t>
-  </si>
-  <si>
-    <t>tran_type_query</t>
-  </si>
-  <si>
-    <t>tran_date_query</t>
-  </si>
-  <si>
-    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>Select O.created_on from dc_transaction o where O.CNIC ='{customer_cnic}' order by CREATED_ON desc</t>
-  </si>
-  <si>
-    <t>Select O.TRANSACTION_ID from dc_transaction o where O.CNIC ='{customer_cnic}' order by CREATED_ON desc</t>
-  </si>
-  <si>
-    <t>Select O.RESPONSE_MESSAGE from dc_transaction o where O.CNIC ='{customer_cnic}' order by CREATED_ON desc</t>
-  </si>
-  <si>
     <t>mobile_no</t>
   </si>
   <si>
-    <t>When I am verifying Forget Login ID scenario</t>
-  </si>
-  <si>
     <t>3640211897773</t>
   </si>
   <si>
     <t>03006943677</t>
+  </si>
+  <si>
+    <t>success_message</t>
+  </si>
+  <si>
+    <t>Your login ID has been successfully sent to your mobile number xxxxxxx registered with HBL.</t>
+  </si>
+  <si>
+    <t>customer_type_query</t>
+  </si>
+  <si>
+    <t>cnic_no</t>
+  </si>
+  <si>
+    <t>debit_card_no</t>
+  </si>
+  <si>
+    <t>credit_card_no</t>
+  </si>
+  <si>
+    <t>email_value</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>When I am verifying Forget login id for Debit Type Customer</t>
+  </si>
+  <si>
+    <t>Select I.CUSTOMER_TYPE from dc_customer_info i where I.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>4028052000002718</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>When I am verifying Forget login id for Credit Type Customer</t>
+  </si>
+  <si>
+    <t>3660178807169</t>
+  </si>
+  <si>
+    <t>03008381621</t>
+  </si>
+  <si>
+    <t>4902870004884109</t>
+  </si>
+  <si>
+    <t>farooq.leo@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -384,69 +405,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="118" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="112.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="89.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetLoginID.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetLoginID.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>Case</t>
   </si>
@@ -32,12 +32,6 @@
     <t>mobile_no</t>
   </si>
   <si>
-    <t>3640211897773</t>
-  </si>
-  <si>
-    <t>03006943677</t>
-  </si>
-  <si>
     <t>success_message</t>
   </si>
   <si>
@@ -62,21 +56,12 @@
     <t>pin</t>
   </si>
   <si>
-    <t>When I am verifying Forget login id for Debit Type Customer</t>
-  </si>
-  <si>
     <t>Select I.CUSTOMER_TYPE from dc_customer_info i where I.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
-    <t>4028052000002718</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
-    <t>When I am verifying Forget login id for Credit Type Customer</t>
-  </si>
-  <si>
     <t>3660178807169</t>
   </si>
   <si>
@@ -87,16 +72,93 @@
   </si>
   <si>
     <t>farooq.leo@hotmail.com</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can successfully perform Forgot Login ID</t>
+  </si>
+  <si>
+    <t>1350314051455</t>
+  </si>
+  <si>
+    <t>03110204994</t>
+  </si>
+  <si>
+    <t>2205430001256567</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can not perform Forgot Login ID with incorrect CNIC</t>
+  </si>
+  <si>
+    <t>4552102554255</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can not perform Forgot Login ID with incorrect Mobile Number</t>
+  </si>
+  <si>
+    <t>03425452587</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can successfully perform Forgot Login ID with incorrect Debit Card number</t>
+  </si>
+  <si>
+    <t>2205430001251234</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can successfully perform Forgot Login ID</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect CNIC</t>
+  </si>
+  <si>
+    <t>8445201335477</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect Mobile Number</t>
+  </si>
+  <si>
+    <t>03564587547</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can successfully perform Forgot Login ID with incorrect Credit Card number</t>
+  </si>
+  <si>
+    <t>4902845454884109</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can successfully perform Forgot Login ID with incorrect Email Address</t>
+  </si>
+  <si>
+    <t>shoaib.qureshi@hbl.com</t>
+  </si>
+  <si>
+    <t>To verify that Blocked user can not perform Forgot Login ID journey</t>
+  </si>
+  <si>
+    <t>3630238205916</t>
+  </si>
+  <si>
+    <t>To verify that Partial Activated user can not perform Forgot Login ID journey</t>
+  </si>
+  <si>
+    <t>4250148850220</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,14 +181,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,99 +473,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="81" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="89.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetLoginID.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetLoginID.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>Case</t>
   </si>
@@ -104,43 +104,43 @@
     <t>2205430001251234</t>
   </si>
   <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect CNIC</t>
+  </si>
+  <si>
+    <t>8445201335477</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect Mobile Number</t>
+  </si>
+  <si>
+    <t>03564587547</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can successfully perform Forgot Login ID with incorrect Credit Card number</t>
+  </si>
+  <si>
+    <t>4902845454884109</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can successfully perform Forgot Login ID with incorrect Email Address</t>
+  </si>
+  <si>
+    <t>shoaib.qureshi@hbl.com</t>
+  </si>
+  <si>
+    <t>To verify that Blocked user can not perform Forgot Login ID journey</t>
+  </si>
+  <si>
+    <t>3630238205916</t>
+  </si>
+  <si>
+    <t>To verify that Partial Activated user can not perform Forgot Login ID journey</t>
+  </si>
+  <si>
+    <t>4250148850220</t>
+  </si>
+  <si>
     <t>To verify that C-type customer can successfully perform Forgot Login ID</t>
-  </si>
-  <si>
-    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect CNIC</t>
-  </si>
-  <si>
-    <t>8445201335477</t>
-  </si>
-  <si>
-    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect Mobile Number</t>
-  </si>
-  <si>
-    <t>03564587547</t>
-  </si>
-  <si>
-    <t>To verify that C-type customer can successfully perform Forgot Login ID with incorrect Credit Card number</t>
-  </si>
-  <si>
-    <t>4902845454884109</t>
-  </si>
-  <si>
-    <t>To verify that C-type customer can successfully perform Forgot Login ID with incorrect Email Address</t>
-  </si>
-  <si>
-    <t>shoaib.qureshi@hbl.com</t>
-  </si>
-  <si>
-    <t>To verify that Blocked user can not perform Forgot Login ID journey</t>
-  </si>
-  <si>
-    <t>3630238205916</t>
-  </si>
-  <si>
-    <t>To verify that Partial Activated user can not perform Forgot Login ID journey</t>
-  </si>
-  <si>
-    <t>4250148850220</t>
   </si>
 </sst>
 </file>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,19 +523,22 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
@@ -546,13 +549,13 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -569,16 +572,16 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -592,7 +595,7 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -601,10 +604,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
@@ -615,22 +618,19 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
@@ -641,13 +641,13 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -655,7 +655,7 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -667,7 +667,7 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -676,12 +676,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -693,7 +693,7 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -705,9 +705,9 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -719,7 +719,7 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -733,8 +733,8 @@
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
+      <c r="G10" t="s">
+        <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
@@ -745,36 +745,30 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,14 +783,7 @@
       <c r="G17" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
-    <hyperlink ref="G7" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3"/>
-    <hyperlink ref="G9" r:id="rId4"/>
-    <hyperlink ref="G10" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetLoginID.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ForgetLoginID.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="63">
   <si>
     <t>Case</t>
   </si>
@@ -98,9 +98,6 @@
     <t>03425452587</t>
   </si>
   <si>
-    <t>To verify that D-type customer can successfully perform Forgot Login ID with incorrect Debit Card number</t>
-  </si>
-  <si>
     <t>2205430001251234</t>
   </si>
   <si>
@@ -110,21 +107,12 @@
     <t>8445201335477</t>
   </si>
   <si>
-    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect Mobile Number</t>
-  </si>
-  <si>
     <t>03564587547</t>
   </si>
   <si>
-    <t>To verify that C-type customer can successfully perform Forgot Login ID with incorrect Credit Card number</t>
-  </si>
-  <si>
     <t>4902845454884109</t>
   </si>
   <si>
-    <t>To verify that C-type customer can successfully perform Forgot Login ID with incorrect Email Address</t>
-  </si>
-  <si>
     <t>shoaib.qureshi@hbl.com</t>
   </si>
   <si>
@@ -141,6 +129,90 @@
   </si>
   <si>
     <t>To verify that C-type customer can successfully perform Forgot Login ID</t>
+  </si>
+  <si>
+    <t>login_id</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect Credit Card no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that C-type customer can not perform Forgot Login ID with incorrect Email </t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can not perform Forgot Login ID with incorrect Debit no</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect Mobile</t>
+  </si>
+  <si>
+    <t>LOGINID123</t>
+  </si>
+  <si>
+    <t>CHEETA1988</t>
+  </si>
+  <si>
+    <t>pakistan1</t>
+  </si>
+  <si>
+    <t>login_password</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>tran_date_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.CREATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>customer_type_tran_query</t>
+  </si>
+  <si>
+    <t>cnic_tran_query</t>
+  </si>
+  <si>
+    <t>email_tran_query</t>
+  </si>
+  <si>
+    <t>mobile_no_tran_query</t>
+  </si>
+  <si>
+    <t>created_on_tran_query</t>
+  </si>
+  <si>
+    <t>updated_on_tran_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.UPDATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '54' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.CREATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '54' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.MOBILE_NO FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '54' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.EMAIL_ADDRESS FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '54' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.CNIC FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '54' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.CUSTOMER_TYPE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '54' order by 1 desc</t>
   </si>
 </sst>
 </file>
@@ -473,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,10 +561,21 @@
     <col min="7" max="7" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="89.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="77.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="102.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="91.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="102" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="98" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="99.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="99.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,10 +603,43 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -546,8 +662,41 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -569,8 +718,41 @@
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -592,8 +774,35 @@
       <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -615,10 +824,37 @@
       <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -630,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
@@ -638,16 +874,43 @@
       <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -664,10 +927,37 @@
       <c r="I7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -676,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -690,10 +980,37 @@
       <c r="I8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -705,7 +1022,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -716,10 +1033,37 @@
       <c r="I9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -734,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
@@ -742,41 +1086,122 @@
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="L10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3"/>
       <c r="I11" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G12" s="3"/>
       <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G14" s="3"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
